--- a/Jogos_do_Dia/2023-09-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -623,10 +623,10 @@
         <v>4.57</v>
       </c>
       <c r="N2" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="O2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="J3" t="n">
         <v>1.07</v>
@@ -714,10 +714,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="O3" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -805,10 +805,10 @@
         <v>4.33</v>
       </c>
       <c r="N4" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="O4" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="P4" t="n">
         <v>1.21</v>
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -896,10 +896,10 @@
         <v>3.7</v>
       </c>
       <c r="N5" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="O5" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>1.35</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.71</v>
+        <v>4.35</v>
       </c>
       <c r="I6" t="n">
-        <v>4.21</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -987,10 +987,10 @@
         <v>4.53</v>
       </c>
       <c r="N6" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="O6" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.39</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>4.68</v>
+        <v>6.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
@@ -1169,10 +1169,10 @@
         <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="O8" t="n">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="P8" t="n">
         <v>1.24</v>
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.93</v>
+        <v>5.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.98</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1260,10 +1260,10 @@
         <v>4.3</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O9" t="n">
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="P9" t="n">
         <v>1.3</v>
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.21</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1351,10 +1351,10 @@
         <v>4.33</v>
       </c>
       <c r="N10" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="O10" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1515,10 +1515,10 @@
         <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>3.9</v>
       </c>
       <c r="N12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1603,13 +1603,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.01</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>2.56</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -1624,10 +1624,10 @@
         <v>3.3</v>
       </c>
       <c r="N13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -1685,76 +1685,76 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>SV Stripfing Weiden</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.11</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="N14" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="O14" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="U14" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X14" t="n">
         <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="15">
@@ -1776,76 +1776,76 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SV Stripfing Weiden</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.29</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="O15" t="n">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="U15" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="V15" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
         <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="16">
@@ -1876,37 +1876,37 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.43</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.67</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="N16" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="O16" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="R16" t="n">
         <v>1.67</v>
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -1988,10 +1988,10 @@
         <v>4.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="O17" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P17" t="n">
         <v>1.23</v>
@@ -2058,13 +2058,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J18" t="n">
         <v>1.04</v>
@@ -2079,10 +2079,10 @@
         <v>4.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="P18" t="n">
         <v>1.27</v>
@@ -2149,52 +2149,52 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
         <v>2.25</v>
@@ -2240,13 +2240,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2261,10 +2261,10 @@
         <v>3.75</v>
       </c>
       <c r="N20" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O20" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P20" t="n">
         <v>1.36</v>
@@ -2331,13 +2331,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2352,10 +2352,10 @@
         <v>3.82</v>
       </c>
       <c r="N21" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="O21" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2422,43 +2422,43 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="O22" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T22" t="n">
         <v>1.25</v>
@@ -2579,7 +2579,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -2591,86 +2591,86 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Oţelul Galaţi</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Dinamo Bucureşti</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.36</v>
       </c>
-      <c r="H24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K24" t="n">
-        <v>22</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.13</v>
-      </c>
       <c r="V24" t="n">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="W24" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.08</v>
+        <v>1.42</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.16</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -2682,80 +2682,80 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Oţelul Galaţi</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dinamo Bucureşti</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>6.5</v>
+        <v>22</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="M25" t="n">
-        <v>2.62</v>
+        <v>4.9</v>
       </c>
       <c r="N25" t="n">
-        <v>2.32</v>
+        <v>1.48</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>2.5</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W25" t="n">
         <v>2.5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.8</v>
       </c>
       <c r="X25" t="n">
         <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.51</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="26">
@@ -2777,76 +2777,76 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L26" t="n">
         <v>1.2</v>
       </c>
       <c r="M26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="O26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P26" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="n">
         <v>1.22</v>
       </c>
       <c r="V26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z26" t="n">
         <v>1.62</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AA26" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="27">
@@ -2868,76 +2868,76 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.63</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>2.85</v>
       </c>
       <c r="J27" t="n">
         <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
         <v>1.2</v>
       </c>
       <c r="M27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.62</v>
       </c>
-      <c r="O27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W27" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.79</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="28">
@@ -2959,37 +2959,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.33</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="J28" t="n">
         <v>1.02</v>
       </c>
       <c r="K28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L28" t="n">
         <v>1.2</v>
       </c>
       <c r="M28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O28" t="n">
         <v>2.25</v>
@@ -3001,34 +3001,34 @@
         <v>3.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.05</v>
+        <v>1.62</v>
       </c>
       <c r="U28" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="V28" t="n">
-        <v>3.3</v>
+        <v>1.44</v>
       </c>
       <c r="W28" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="29">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>1.33</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
         <v>1.02</v>
@@ -3092,34 +3092,34 @@
         <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="S29" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>1.83</v>
+        <v>1.05</v>
       </c>
       <c r="U29" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="V29" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.35</v>
+        <v>1.97</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.62</v>
+        <v>0.87</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="30">
@@ -3141,37 +3141,37 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.8</v>
+        <v>1.63</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="J30" t="n">
         <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L30" t="n">
         <v>1.2</v>
       </c>
       <c r="M30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O30" t="n">
         <v>2.25</v>
@@ -3183,31 +3183,31 @@
         <v>3.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="S30" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="U30" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="V30" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="W30" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="X30" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.02</v>
+        <v>1.48</v>
       </c>
       <c r="AA30" t="n">
         <v>2.79</v>
@@ -3332,43 +3332,43 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="O32" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="S32" t="n">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="T32" t="n">
         <v>1.7</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
-        <v>3.57</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.61</v>
+        <v>5.1</v>
       </c>
       <c r="J33" t="n">
         <v>1.06</v>
@@ -3444,10 +3444,10 @@
         <v>3.4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="O33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P33" t="n">
         <v>1.39</v>
@@ -3514,37 +3514,37 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="R34" t="n">
         <v>1.67</v>
@@ -3605,13 +3605,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
@@ -3626,10 +3626,10 @@
         <v>6.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="O35" t="n">
-        <v>2.9</v>
+        <v>2.31</v>
       </c>
       <c r="P35" t="n">
         <v>1.22</v>
@@ -3687,82 +3687,82 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Drogheda United</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
-        <v>15.38</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>24.01</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K36" t="n">
         <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="M36" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="N36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X36" t="n">
         <v>1.27</v>
       </c>
-      <c r="O36" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V36" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.13</v>
-      </c>
       <c r="Y36" t="n">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.69</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -3774,80 +3774,80 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.97</v>
+        <v>4.5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.27</v>
+        <v>4.1</v>
       </c>
       <c r="I37" t="n">
-        <v>3.15</v>
+        <v>1.7</v>
       </c>
       <c r="J37" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K37" t="n">
-        <v>9.9</v>
+        <v>17</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="M37" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="O37" t="n">
-        <v>1.89</v>
+        <v>2.54</v>
       </c>
       <c r="P37" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="R37" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="S37" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="U37" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="V37" t="n">
-        <v>1.97</v>
+        <v>1.2</v>
       </c>
       <c r="W37" t="n">
-        <v>1.87</v>
+        <v>0.5</v>
       </c>
       <c r="X37" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="AA37" t="n">
-        <v>3.02</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="38">
@@ -3869,76 +3869,76 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.19</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3.29</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.95</v>
+        <v>4.9</v>
       </c>
       <c r="J38" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.65</v>
       </c>
-      <c r="O38" t="n">
-        <v>2.03</v>
-      </c>
       <c r="P38" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="R38" t="n">
-        <v>1.62</v>
+        <v>2.01</v>
       </c>
       <c r="S38" t="n">
-        <v>2.21</v>
+        <v>1.75</v>
       </c>
       <c r="T38" t="n">
-        <v>1.76</v>
+        <v>1.15</v>
       </c>
       <c r="U38" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V38" t="n">
-        <v>1.32</v>
+        <v>2.17</v>
       </c>
       <c r="W38" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="X38" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.19</v>
+        <v>1.93</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.58</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="39">
@@ -3960,82 +3960,82 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Drogheda United</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K39" t="n">
+        <v>10</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="n">
         <v>1.73</v>
       </c>
-      <c r="H39" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.6</v>
-      </c>
       <c r="O39" t="n">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="P39" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="R39" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="S39" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="T39" t="n">
-        <v>1.17</v>
+        <v>1.76</v>
       </c>
       <c r="U39" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="V39" t="n">
-        <v>2.22</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="X39" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.77</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -4047,80 +4047,80 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.52</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
-        <v>3.52</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>1.78</v>
+        <v>4.4</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K40" t="n">
-        <v>17</v>
+        <v>9.9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="O40" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="P40" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="R40" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="S40" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="T40" t="n">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="U40" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="V40" t="n">
-        <v>1.2</v>
+        <v>1.97</v>
       </c>
       <c r="W40" t="n">
-        <v>0.5</v>
+        <v>1.87</v>
       </c>
       <c r="X40" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="41">
@@ -4142,82 +4142,82 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.76</v>
+        <v>1.02</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>16</v>
       </c>
       <c r="I41" t="n">
-        <v>3.96</v>
+        <v>25</v>
       </c>
       <c r="J41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K41" t="n">
+        <v>11</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U41" t="n">
         <v>1.03</v>
       </c>
-      <c r="K41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.25</v>
-      </c>
       <c r="V41" t="n">
-        <v>2.17</v>
+        <v>4.9</v>
       </c>
       <c r="W41" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="X41" t="n">
-        <v>1.47</v>
+        <v>0.13</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.21</v>
+        <v>0.92</v>
       </c>
       <c r="AA41" t="n">
-        <v>3.14</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -4229,86 +4229,86 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I42" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L42" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N42" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O42" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="P42" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="R42" t="n">
         <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>1.28</v>
       </c>
-      <c r="V42" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0.86</v>
-      </c>
       <c r="Z42" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -4324,82 +4324,82 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FC Barcelona</t>
+          <t>Leganés</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sevilla FC</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.33</v>
+        <v>2.18</v>
       </c>
       <c r="H43" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>3.55</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K43" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>2.41</v>
       </c>
       <c r="N43" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="O43" t="n">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="P43" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="R43" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="S43" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="T43" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="U43" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="V43" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="W43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X43" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.16</v>
+        <v>1.34</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AA43" t="n">
-        <v>3.55</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -4411,86 +4411,86 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J44" t="n">
         <v>1.05</v>
       </c>
       <c r="K44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N44" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O44" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="P44" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="R44" t="n">
         <v>1.75</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T44" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U44" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V44" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W44" t="n">
-        <v>2.33</v>
+        <v>0.25</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.28</v>
+        <v>0.86</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AA44" t="n">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -4506,76 +4506,76 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Leganés</t>
+          <t>FC Barcelona</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Sevilla FC</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.15</v>
+        <v>1.36</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="I45" t="n">
+        <v>9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K45" t="n">
+        <v>19</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q45" t="n">
         <v>3.5</v>
       </c>
-      <c r="J45" t="n">
+      <c r="R45" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T45" t="n">
         <v>1.09</v>
       </c>
-      <c r="K45" t="n">
-        <v>7</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.25</v>
-      </c>
       <c r="U45" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="V45" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="W45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.34</v>
+        <v>2.16</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AA45" t="n">
-        <v>2.62</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="46">
@@ -4606,13 +4606,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4627,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="O46" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="I47" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="J47" t="n">
         <v>1.13</v>
@@ -4718,10 +4718,10 @@
         <v>2.35</v>
       </c>
       <c r="N47" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="P47" t="n">
         <v>1.58</v>
@@ -4763,7 +4763,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -4775,86 +4775,86 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vélez Sarsfield</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.19</v>
+        <v>3.34</v>
       </c>
       <c r="J48" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA48" t="n">
         <v>2.5</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>2.91</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -4866,80 +4866,171 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Vélez Sarsfield</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="I49" t="n">
-        <v>3.05</v>
+        <v>3.19</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>6.83</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="N49" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W49" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="X49" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.38</v>
+        <v>1.82</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AA49" t="n">
-        <v>2.5</v>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>30</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K50" t="n">
+        <v>8</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -623,10 +623,10 @@
         <v>4.57</v>
       </c>
       <c r="N2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O2" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>
@@ -650,10 +650,10 @@
         <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="Y2" t="n">
         <v>1.4</v>
@@ -696,10 +696,10 @@
         <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J3" t="n">
         <v>1.07</v>
@@ -714,7 +714,7 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -741,10 +741,10 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="Y3" t="n">
         <v>1.52</v>
@@ -787,10 +787,10 @@
         <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -805,10 +805,10 @@
         <v>4.33</v>
       </c>
       <c r="N4" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="O4" t="n">
-        <v>2.17</v>
+        <v>2.6</v>
       </c>
       <c r="P4" t="n">
         <v>1.21</v>
@@ -832,10 +832,10 @@
         <v>1.72</v>
       </c>
       <c r="W4" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="X4" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Y4" t="n">
         <v>1.63</v>
@@ -878,10 +878,10 @@
         <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -896,10 +896,10 @@
         <v>3.7</v>
       </c>
       <c r="N5" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P5" t="n">
         <v>1.35</v>
@@ -923,10 +923,10 @@
         <v>2.5</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="X5" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="Y5" t="n">
         <v>1.59</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -987,10 +987,10 @@
         <v>4.53</v>
       </c>
       <c r="N6" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="O6" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1014,10 +1014,10 @@
         <v>2.27</v>
       </c>
       <c r="W6" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="Y6" t="n">
         <v>1.77</v>
@@ -1105,10 +1105,10 @@
         <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="X7" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="Y7" t="n">
         <v>1.42</v>
@@ -1151,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>1.22</v>
@@ -1169,10 +1169,10 @@
         <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="O8" t="n">
-        <v>2.69</v>
+        <v>2.9</v>
       </c>
       <c r="P8" t="n">
         <v>1.24</v>
@@ -1196,10 +1196,10 @@
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="X8" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="Y8" t="n">
         <v>1.06</v>
@@ -1242,7 +1242,7 @@
         <v>5.75</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>1.5</v>
@@ -1260,10 +1260,10 @@
         <v>4.3</v>
       </c>
       <c r="N9" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O9" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="P9" t="n">
         <v>1.3</v>
@@ -1287,10 +1287,10 @@
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="X9" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="Y9" t="n">
         <v>1.65</v>
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1351,10 +1351,10 @@
         <v>4.33</v>
       </c>
       <c r="N10" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="O10" t="n">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1378,10 +1378,10 @@
         <v>2.05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="X10" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="Y10" t="n">
         <v>1.12</v>
@@ -1469,10 +1469,10 @@
         <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="Y11" t="n">
         <v>1.46</v>
@@ -1515,10 +1515,10 @@
         <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>3.9</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O12" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1560,7 +1560,7 @@
         <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1603,13 +1603,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -1624,10 +1624,10 @@
         <v>3.3</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="O13" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -1651,10 +1651,10 @@
         <v>1.53</v>
       </c>
       <c r="W13" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="Y13" t="n">
         <v>1.31</v>
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.71</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1715,10 +1715,10 @@
         <v>3.94</v>
       </c>
       <c r="N14" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="O14" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="P14" t="n">
         <v>1.32</v>
@@ -1727,10 +1727,10 @@
         <v>3.22</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
         <v>1.51</v>
@@ -1785,13 +1785,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -1806,10 +1806,10 @@
         <v>4.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="O15" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="P15" t="n">
         <v>1.3</v>
@@ -1876,13 +1876,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>4.05</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -1897,10 +1897,10 @@
         <v>4.6</v>
       </c>
       <c r="N16" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="O16" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="P16" t="n">
         <v>1.28</v>
@@ -1909,10 +1909,10 @@
         <v>3.48</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
         <v>1.2</v>
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -1988,10 +1988,10 @@
         <v>4.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="O17" t="n">
-        <v>2.9</v>
+        <v>2.13</v>
       </c>
       <c r="P17" t="n">
         <v>1.23</v>
@@ -2061,10 +2061,10 @@
         <v>2.37</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J18" t="n">
         <v>1.04</v>
@@ -2079,10 +2079,10 @@
         <v>4.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="O18" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="P18" t="n">
         <v>1.27</v>
@@ -2149,13 +2149,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="J19" t="n">
         <v>1.02</v>
@@ -2170,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O19" t="n">
         <v>2.11</v>
@@ -2240,13 +2240,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>2.49</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2261,10 +2261,10 @@
         <v>3.75</v>
       </c>
       <c r="N20" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O20" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P20" t="n">
         <v>1.36</v>
@@ -2334,10 +2334,10 @@
         <v>1.98</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2352,10 +2352,10 @@
         <v>3.82</v>
       </c>
       <c r="N21" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="O21" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="J22" t="n">
         <v>1.03</v>
@@ -2443,10 +2443,10 @@
         <v>4.2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="O22" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="P22" t="n">
         <v>1.33</v>
@@ -2455,10 +2455,10 @@
         <v>3.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T22" t="n">
         <v>1.25</v>
@@ -2579,7 +2579,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -2591,86 +2591,86 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Oţelul Galaţi</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dinamo Bucureşti</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="L24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.44</v>
       </c>
-      <c r="M24" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P24" t="n">
+      <c r="W24" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="X24" t="n">
         <v>2</v>
       </c>
-      <c r="S24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1</v>
-      </c>
       <c r="Y24" t="n">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.51</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -2682,80 +2682,80 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Oţelul Galaţi</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Dinamo Bucureşti</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.36</v>
       </c>
-      <c r="H25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K25" t="n">
-        <v>22</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.13</v>
-      </c>
       <c r="V25" t="n">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="W25" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="X25" t="n">
         <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.08</v>
+        <v>1.42</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AA25" t="n">
-        <v>3.16</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="26">
@@ -2777,76 +2777,76 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>1.36</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L26" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="M26" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="N26" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="O26" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="U26" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="V26" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="W26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X26" t="n">
         <v>1</v>
       </c>
-      <c r="X26" t="n">
-        <v>2</v>
-      </c>
       <c r="Y26" t="n">
-        <v>1.35</v>
+        <v>2.08</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.62</v>
+        <v>1.08</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.97</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="27">
@@ -2868,76 +2868,76 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L27" t="n">
         <v>1.2</v>
       </c>
       <c r="M27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="O27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P27" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="U27" t="n">
         <v>1.22</v>
       </c>
       <c r="V27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z27" t="n">
         <v>1.62</v>
       </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AA27" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="28">
@@ -2959,22 +2959,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="J28" t="n">
         <v>1.02</v>
@@ -2989,46 +2989,46 @@
         <v>4.33</v>
       </c>
       <c r="N28" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P28" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S28" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="U28" t="n">
         <v>1.22</v>
       </c>
       <c r="V28" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="W28" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.77</v>
+        <v>1.49</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.79</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="29">
@@ -3050,37 +3050,37 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.33</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="J29" t="n">
         <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
         <v>1.2</v>
       </c>
       <c r="M29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N29" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O29" t="n">
         <v>2.25</v>
@@ -3092,34 +3092,34 @@
         <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="S29" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.05</v>
+        <v>1.62</v>
       </c>
       <c r="U29" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="V29" t="n">
-        <v>3.3</v>
+        <v>1.44</v>
       </c>
       <c r="W29" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="30">
@@ -3232,76 +3232,76 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>1.33</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
         <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L31" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="O31" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="P31" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="S31" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="T31" t="n">
-        <v>1.62</v>
+        <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="V31" t="n">
-        <v>1.44</v>
+        <v>3.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.15</v>
+        <v>1.97</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.18</v>
+        <v>0.87</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.33</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="32">
@@ -3332,13 +3332,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -3353,10 +3353,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="O32" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="P32" t="n">
         <v>1.3</v>
@@ -3365,10 +3365,10 @@
         <v>3.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S32" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="n">
         <v>1.7</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>1.06</v>
@@ -3444,10 +3444,10 @@
         <v>3.4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="O33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P33" t="n">
         <v>1.39</v>
@@ -3514,13 +3514,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="J34" t="n">
         <v>1.05</v>
@@ -3535,10 +3535,10 @@
         <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P34" t="n">
         <v>1.35</v>
@@ -3605,13 +3605,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
@@ -3626,10 +3626,10 @@
         <v>6.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="O35" t="n">
-        <v>2.31</v>
+        <v>2.86</v>
       </c>
       <c r="P35" t="n">
         <v>1.22</v>
@@ -3687,82 +3687,82 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Drogheda United</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="n">
         <v>1.65</v>
       </c>
-      <c r="H36" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K36" t="n">
-        <v>11</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.68</v>
-      </c>
       <c r="O36" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="P36" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="R36" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="T36" t="n">
-        <v>1.17</v>
+        <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="V36" t="n">
-        <v>2.22</v>
+        <v>1.32</v>
       </c>
       <c r="W36" t="n">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="X36" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.77</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -3774,80 +3774,80 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.5</v>
+        <v>1.06</v>
       </c>
       <c r="H37" t="n">
-        <v>4.1</v>
+        <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>1.7</v>
+        <v>26</v>
       </c>
       <c r="J37" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K37" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L37" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="N37" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="O37" t="n">
-        <v>2.54</v>
+        <v>3.19</v>
       </c>
       <c r="P37" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>1.55</v>
+        <v>2.65</v>
       </c>
       <c r="S37" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="V37" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="W37" t="n">
-        <v>0.5</v>
+        <v>1.73</v>
       </c>
       <c r="X37" t="n">
-        <v>1.5</v>
+        <v>0.13</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.17</v>
+        <v>1.77</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.75</v>
+        <v>0.92</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.92</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="38">
@@ -3869,76 +3869,76 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K38" t="n">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="O38" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="P38" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="R38" t="n">
-        <v>2.01</v>
+        <v>1.74</v>
       </c>
       <c r="S38" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="T38" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="U38" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="V38" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="W38" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="X38" t="n">
-        <v>1.47</v>
+        <v>0.8</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AA38" t="n">
-        <v>3.14</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="39">
@@ -3960,82 +3960,82 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>1.72</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I39" t="n">
-        <v>1.85</v>
+        <v>4.65</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N39" t="n">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="O39" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="P39" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="R39" t="n">
-        <v>1.62</v>
+        <v>2.01</v>
       </c>
       <c r="S39" t="n">
-        <v>2.21</v>
+        <v>1.75</v>
       </c>
       <c r="T39" t="n">
-        <v>1.76</v>
+        <v>1.15</v>
       </c>
       <c r="U39" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V39" t="n">
-        <v>1.32</v>
+        <v>2.17</v>
       </c>
       <c r="W39" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="X39" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.19</v>
+        <v>1.93</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.58</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -4047,80 +4047,80 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I40" t="n">
         <v>1.7</v>
       </c>
-      <c r="H40" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.4</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>9.9</v>
+        <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="M40" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="O40" t="n">
-        <v>1.91</v>
+        <v>2.17</v>
       </c>
       <c r="P40" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="R40" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="S40" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="V40" t="n">
-        <v>1.97</v>
+        <v>1.2</v>
       </c>
       <c r="W40" t="n">
-        <v>1.87</v>
+        <v>0.5</v>
       </c>
       <c r="X40" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="AA40" t="n">
-        <v>3.02</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="41">
@@ -4142,82 +4142,82 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Drogheda United</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.02</v>
+        <v>1.67</v>
       </c>
       <c r="H41" t="n">
-        <v>16</v>
+        <v>3.95</v>
       </c>
       <c r="I41" t="n">
-        <v>25</v>
+        <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
         <v>11</v>
       </c>
       <c r="L41" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="M41" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="N41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="P41" t="n">
         <v>1.33</v>
       </c>
-      <c r="O41" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="R41" t="n">
-        <v>2.65</v>
+        <v>1.66</v>
       </c>
       <c r="S41" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="U41" t="n">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="V41" t="n">
-        <v>4.9</v>
+        <v>2.22</v>
       </c>
       <c r="W41" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="X41" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.69</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -4229,86 +4229,86 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="H42" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
       </c>
       <c r="K42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="O42" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="P42" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="R42" t="n">
         <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T42" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U42" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V42" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W42" t="n">
-        <v>2.33</v>
+        <v>0.25</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.28</v>
+        <v>0.86</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -4324,82 +4324,82 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Leganés</t>
+          <t>FC Barcelona</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Sevilla FC</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.18</v>
+        <v>1.39</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="I43" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K43" t="n">
+        <v>19</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA43" t="n">
         <v>3.55</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K43" t="n">
-        <v>7</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W43" t="n">
-        <v>2</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>2.62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -4411,86 +4411,86 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>2.83</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I44" t="n">
-        <v>2.35</v>
+        <v>2.41</v>
       </c>
       <c r="J44" t="n">
         <v>1.05</v>
       </c>
       <c r="K44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L44" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="O44" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="P44" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="R44" t="n">
         <v>1.75</v>
       </c>
       <c r="S44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>1.28</v>
       </c>
-      <c r="V44" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0.86</v>
-      </c>
       <c r="Z44" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="AA44" t="n">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -4506,76 +4506,76 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FC Barcelona</t>
+          <t>Leganés</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sevilla FC</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.36</v>
+        <v>2.17</v>
       </c>
       <c r="H45" t="n">
-        <v>5.4</v>
+        <v>3.15</v>
       </c>
       <c r="I45" t="n">
-        <v>9</v>
+        <v>3.35</v>
       </c>
       <c r="J45" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K45" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>2.41</v>
       </c>
       <c r="N45" t="n">
-        <v>1.62</v>
+        <v>2.49</v>
       </c>
       <c r="O45" t="n">
-        <v>2.25</v>
+        <v>1.41</v>
       </c>
       <c r="P45" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="R45" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="T45" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="U45" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="V45" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="W45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X45" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.16</v>
+        <v>1.34</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.55</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="46">
@@ -4606,13 +4606,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4627,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O46" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4700,10 +4700,10 @@
         <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J47" t="n">
         <v>1.13</v>
@@ -4712,16 +4712,16 @@
         <v>6.25</v>
       </c>
       <c r="L47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N47" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O47" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="P47" t="n">
         <v>1.58</v>
@@ -4763,7 +4763,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -4775,86 +4775,86 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Vélez Sarsfield</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K48" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R48" t="n">
         <v>2.1</v>
       </c>
-      <c r="H48" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W48" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="X48" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.38</v>
+        <v>1.82</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AA48" t="n">
-        <v>2.5</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -4866,80 +4866,80 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vélez Sarsfield</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="H49" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.19</v>
+        <v>3.05</v>
       </c>
       <c r="J49" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA49" t="n">
         <v>2.5</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>2.91</v>
       </c>
     </row>
     <row r="50">
@@ -4970,13 +4970,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I50" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J50" t="n">
         <v>1.08</v>
@@ -4991,10 +4991,10 @@
         <v>2.7</v>
       </c>
       <c r="N50" t="n">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="O50" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="P50" t="n">
         <v>1.5</v>
